--- a/target/test-classes/TESTDATA/data_excel.xlsx
+++ b/target/test-classes/TESTDATA/data_excel.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
     <sheet name="parameter" sheetId="2" r:id="rId2"/>
-    <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="add_task" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>task name</t>
   </si>
@@ -84,13 +84,7 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <t>new_task</t>
   </si>
 </sst>
 </file>
@@ -99,9 +93,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -146,9 +140,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +165,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -178,16 +234,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -195,13 +250,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -217,60 +265,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,19 +279,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,163 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,6 +484,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,31 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,148 +575,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -736,10 +730,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1067,7 +1061,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1121,7 +1115,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
@@ -1141,22 +1135,22 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1171,7 +1165,7 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1206,88 +1200,88 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1298,28 +1292,52 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
